--- a/Madeta/Paletizace tray/Dokumentace/skladbym.xlsx
+++ b/Madeta/Paletizace tray/Dokumentace/skladbym.xlsx
@@ -809,8 +809,8 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
